--- a/biology/Botanique/Lasiochlamys_rivularis/Lasiochlamys_rivularis.xlsx
+++ b/biology/Botanique/Lasiochlamys_rivularis/Lasiochlamys_rivularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasiochlamys rivularis est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys, endémique de Nouvelle-Calédonie. L'espèce est protégée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasiochlamys rivularis est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys, endémique de Nouvelle-Calédonie. L'espèce est protégée.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 4 m ; les rameaux sont avec une écorce rugueuse couverts de lenticelles allongées. Les feuilles sont fermes à coriaces, oblongues, en coin à la base, obtuses au sommet ; leur bord est entier ; le pétiole est robuste[3].
-Les fleurs sont blanchâtres, disposées sur des glomérules multiflores. Les fruits sont globuleux ; ils contiennent 2 à 3 graines. La floraison et la fructification se déroulent de novembre à février[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 4 m ; les rameaux sont avec une écorce rugueuse couverts de lenticelles allongées. Les feuilles sont fermes à coriaces, oblongues, en coin à la base, obtuses au sommet ; leur bord est entier ; le pétiole est robuste.
+Les fleurs sont blanchâtres, disposées sur des glomérules multiflores. Les fruits sont globuleux ; ils contiennent 2 à 3 graines. La floraison et la fructification se déroulent de novembre à février.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été uniquement observée sur la Grande Terre (Nouvelle-Calédonie) qu'à la Rivière Bleue (Haute Yaté). Elle pousse en sous-bois de la forêt dense, humide, sur sol de colluvions, sur substrat ultramafique. Connue que d'un seul biotope, mais pas rare, cette espèce doit faire l'objet d'observations ultérieures, plus approfondies[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été uniquement observée sur la Grande Terre (Nouvelle-Calédonie) qu'à la Rivière Bleue (Haute Yaté). Elle pousse en sous-bois de la forêt dense, humide, sur sol de colluvions, sur substrat ultramafique. Connue que d'un seul biotope, mais pas rare, cette espèce doit faire l'objet d'observations ultérieures, plus approfondies.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. Sleumer, « A concise revision of the Flacourtiaceae of New Caledonia anf the Loyalty Islands », Blumea: Biodiversity, Evolution and Biogeography of Plants, vol. 22, no 1,‎ 1er janvier 1974, p. 127 (ISSN 2212-1676, lire en ligne, consulté le 8 janvier 2021)</t>
         </is>
